--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">S No.</t>
   </si>
@@ -49,19 +49,10 @@
     <t xml:space="preserve">Happiest Birthday To The Best Person. May God Always Bless You.</t>
   </si>
   <si>
-    <t xml:space="preserve">2019,2020</t>
+    <t xml:space="preserve">2019,2020,2021,2022,2023</t>
   </si>
   <si>
     <t xml:space="preserve">krinepal123@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amshu Neupane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amshuneupane@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -180,10 +171,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.61"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -225,26 +223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
